--- a/pred_ohlcv/54_21/2020-01-14 BTT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 BTT ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>-48787004.2856</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-48787004.2856</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-48327588.7087</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-42804298.3742</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-42805690.3742</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-43447139.5046</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-39859548.40400001</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-39859548.40400001</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-39859548.40400001</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-39859548.40400001</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-39859548.40400001</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-39859548.40400001</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-39954587.3008</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-39954587.3008</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-39954587.3008</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-39954587.3008</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-39954587.3008</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-39954587.3008</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-39954587.3008</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-39962128.2854</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-39962128.2854</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-39962128.2854</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-39962128.2854</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-39209516.2854</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-39209516.2854</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-39801278.2216</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-39688023.2216</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-39688023.2216</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-39688023.2216</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-40628116.2861</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-40593723.2861</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-40593723.2861</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-40593723.2861</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-40593723.2861</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-42965613.794</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-42965613.794</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-42965613.794</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-42965613.794</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-33283183.794</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-28388291.3914</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-28388291.3914</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-28388291.3914</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-28388291.3914</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-28389681.3914</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-28392391.3914</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-28398114.3914</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-24437731.9156</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-24023949.5062</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-24023949.5062</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-25051507.71</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-26863661.7565</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-32465594.3792</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-32467065.8792</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-35068951.5903</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-35080951.5903</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-35080951.5903</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-30693552.6964</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-30692140.6964</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-43050398.36509632</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-43851319.98779631</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-43851319.98779631</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-44881404.87439632</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-44881404.87439632</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-44881404.87439632</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-45008600.01719632</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-45010100.01719632</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-46663912.77869632</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>577097373.8413037</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>570456340.6713037</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>575530556.6713037</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>573152494.4496038</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>573152494.4496038</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>573163647.5383039</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>571148448.5385039</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>574882440.8908039</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>574882440.8908039</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>574882440.8908039</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>573255317.740104</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>601705847.121004</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>601705847.121004</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>601705847.121004</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>600285581.881004</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>600285581.881004</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>600285581.881004</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>600285581.881004</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>601033561.5599862</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>600803349.5846863</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>600803349.5846863</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>605695360.2372863</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>603840399.7428863</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>616456233.9449099</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>616453171.58391</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>590699933.71411</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>593280485.1994101</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>593279068.76881</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>593279068.76881</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>593281510.20341</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>593282918.65421</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>593281505.4263099</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>593174029.50563</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>593174029.50563</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>593174029.50563</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>593174029.50563</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>593174029.50563</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>591815223.02283</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>589776082.00033</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>589776082.00033</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>591712460.7540299</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>591712460.7540299</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>591885452.57143</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>591885452.57143</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>604723358.2269299</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>604723358.2269257</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>604723358.2269257</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>604720524.1063257</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>605423670.4134258</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-14 BTT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 BTT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-53678486.6542</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-53852306.6542</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-53850925.6542</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-48347101.9298</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-48350101.9298</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-48444801.9298</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-48787004.2856</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-48787004.2856</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-48327588.7087</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-42804298.3742</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-42805690.3742</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-43447139.5046</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-39859548.40400001</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-39859548.40400001</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-39859548.40400001</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-39859548.40400001</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-39859548.40400001</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-39859548.40400001</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-39954587.3008</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-39954587.3008</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-39954587.3008</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-39954587.3008</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-39954587.3008</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-39954587.3008</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-39954587.3008</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-39962128.2854</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-39962128.2854</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-39962128.2854</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-39962128.2854</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-39209516.2854</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-39209516.2854</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-39801278.2216</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-39688023.2216</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-39688023.2216</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-39688023.2216</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-40628116.2861</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-40593723.2861</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-40593723.2861</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-40593723.2861</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-40593723.2861</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-42965613.794</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-42965613.794</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-42965613.794</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-42965613.794</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-33283183.794</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-28388291.3914</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-28388291.3914</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-28388291.3914</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-28388291.3914</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-28389681.3914</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-28392391.3914</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-24436260.4156</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-24436260.4156</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-24437731.9156</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-24023949.5062</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-24023949.5062</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-25051507.71</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-26863661.7565</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-27693171.943</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-31936229.7227</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-31936229.7227</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-31936229.7227</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-32604098.5344</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-32465594.3792</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-32467065.8792</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-35068951.5903</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-35080951.5903</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-30693552.6964</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-30692140.6964</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-43048898.36509632</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-43050398.36509632</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-43851319.98779631</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-43851319.98779631</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-43851319.98779631</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-44881404.87439632</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-44881404.87439632</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-44881404.87439632</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-46663912.77869632</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>577097373.8413037</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>600285581.881004</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>600285581.881004</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>616456233.9449099</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>616453171.58391</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>593280485.1994101</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>593279068.76881</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>593279068.76881</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>593281510.20341</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>593282918.65421</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>593281505.4263099</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>593174029.50563</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>593174029.50563</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>593174029.50563</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>593174029.50563</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>593174029.50563</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>591815223.02283</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>589776082.00033</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>589776082.00033</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>591712460.7540299</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>591712460.7540299</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>591885452.57143</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>591885452.57143</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>604723358.2269299</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>604723358.2269257</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>604723358.2269257</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>604720524.1063257</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>605453881.0642258</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>605423670.4134258</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>605423670.4134258</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
